--- a/output/Nissan_05-03-2024.xlsx
+++ b/output/Nissan_05-03-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1954,20 +1954,16 @@
           <t>01121A6031</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>295402550023</t>
-        </is>
+      <c r="C22" t="n">
+        <v>295402550023</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/MTYwMFgxNjAw/z/Y2MAAOSwe1ZlsCTB/$_12.PNG?set_id=880000500F']</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>14769</t>
-        </is>
+      <c r="E22" t="n">
+        <v>14769</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2008,12 +2004,218 @@
           <t>New Genuine Mitsubishi Bolt,Radiator(Washer As 01121A6031 OE</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
+      <c r="Y22" t="n">
+        <v>7.62</v>
       </c>
       <c r="Z22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01121A6041</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>295402541693</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTYwMFgxNjAw/z/kEEAAOSwlI1lsKQ9/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>14769</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Other Exterior Parts &amp; Accessories</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>01121-A6041</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>New Genuine Nissan Bolt 01121A6041 / 01121-A6041 OEM</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="Z23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01121A6051</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>305230074438</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTYwMFgxNjAw/z/TP8AAOSwqwZlsKRE/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>33727</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Transmission &amp; Drivetrain:Automatic Transmission Parts</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>01121-A6051</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>New Genuine Nissan Bolt 01121A6051 / 01121-A6051 OEM</t>
+        </is>
+      </c>
+      <c r="Y24" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01121A6141</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>196212014064</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MjA4WDY0MA==/z/Nu8AAOSwRoRltBrL/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>46093</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Other Vehicle Parts:Other</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>01121-A6141</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Armada Frontier Kicks LEAF Pathfinder Rogue Versa Rogue Sport</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>01125-N6021</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Nissan</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>2017 2018 2019 2020 2021 2022 2023</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Genuine Nissan Tail Light Bolt 01121-A6141</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
